--- a/input/Input summary.xlsx
+++ b/input/Input summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/iml28_cam_ac_uk/Documents/Lab work/Cochlea project/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iek Man Lei\Documents\cochlea-efi-database-master\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{A087F56F-6507-4F1F-9F55-7725D18BA977}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C72C9A34-2604-47CF-90B4-56339B88EA1A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467833EA-D8FF-4074-B7EE-D5C663A76358}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="4350" windowWidth="15390" windowHeight="9533" xr2:uid="{69C4BE36-4F28-4423-A7C6-F6FB21FC2A42}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{69C4BE36-4F28-4423-A7C6-F6FB21FC2A42}"/>
   </bookViews>
   <sheets>
     <sheet name="11-120819" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>18000G3,5T,20%</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Spiral 18000G3,5T,20%,1.2z,2108</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BE7A8E-2F05-4827-9563-006C3E34B2E4}">
   <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -786,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56254D0E-BCD7-4664-8DE1-FF0DEBEFBF11}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1054,7 +1057,7 @@
         <v>165303</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -1072,6 +1075,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF25826832C95D45907FD42796BCC261" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="16f33f3bee629f90572ad604dff4429d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b2959682-a435-4ea3-bf02-2b05435b7b88" xmlns:ns4="9b7806af-e27c-4b8a-8784-4af124135b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b5318ece4e05175420f45e97fd5d436" ns3:_="" ns4:_="">
     <xsd:import namespace="b2959682-a435-4ea3-bf02-2b05435b7b88"/>
@@ -1280,15 +1292,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1296,6 +1299,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D2F7F1E-C96B-49D7-A20A-43FFDB5B742B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D355CF-B74C-47E5-A1C0-9806E856D026}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1314,14 +1325,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D2F7F1E-C96B-49D7-A20A-43FFDB5B742B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8000CB49-181A-4244-8C96-4CC1EE4E884B}">
   <ds:schemaRefs>
